--- a/layouts/lightplay2/lightplay2-BillOfMaterials.xlsx
+++ b/layouts/lightplay2/lightplay2-BillOfMaterials.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="7720" windowWidth="25000" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
   <si>
     <t>10 uH inductor</t>
   </si>
@@ -331,13 +331,67 @@
   </si>
   <si>
     <t>10k</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF1203V</t>
+  </si>
+  <si>
+    <t>667-ERJ-6ENF1203V</t>
+  </si>
+  <si>
+    <t>PR01000105608JR500</t>
+  </si>
+  <si>
+    <t>CRCW08051M00FKEA</t>
+  </si>
+  <si>
+    <t>71-CRCW0805-1.0M-E3</t>
+  </si>
+  <si>
+    <t>CRCW08051K00FKEA</t>
+  </si>
+  <si>
+    <t>71-CRCW0805-1.0K-E3</t>
+  </si>
+  <si>
+    <t>CRCW080510K0FKEA</t>
+  </si>
+  <si>
+    <t>71-CRCW0805-10K-E3</t>
+  </si>
+  <si>
+    <t>12061C104KAT2A</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>GRJ31MR71C105KE01L</t>
+  </si>
+  <si>
+    <t>81-GRJ31MR71C105KE1L</t>
+  </si>
+  <si>
+    <t>581-12061C104K</t>
+  </si>
+  <si>
+    <t>621-DMN3150L-7</t>
+  </si>
+  <si>
+    <t>Diodes Inc</t>
+  </si>
+  <si>
+    <t>alt:</t>
+  </si>
+  <si>
+    <t>710-744025100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -404,6 +458,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -422,7 +487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -504,8 +569,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -551,8 +716,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -608,6 +776,62 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
@@ -633,6 +857,50 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -962,15 +1230,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="4" customWidth="1"/>
@@ -1037,10 +1305,10 @@
         <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
       </c>
       <c r="H2" s="6">
         <v>1.5</v>
@@ -1055,560 +1323,721 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1310</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="I3" s="18">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J13" si="0">I3*H3</f>
-        <v>0.19</v>
-      </c>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1310</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>35</v>
+      <c r="G4" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="H4" s="6">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I4" s="18">
         <v>1</v>
       </c>
       <c r="J4" s="6">
+        <f t="shared" ref="J4:J15" si="0">I4*H4</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H6" s="6">
         <v>1.52</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I6" s="18">
         <v>1</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
         <v>1.52</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="6">
         <v>0.2</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I7" s="18">
         <v>12</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" ht="14" customHeight="1">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H9" s="6">
         <v>17.5</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I9" s="18">
         <v>1</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="4" t="s">
+    <row r="10" spans="1:12">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H10" s="6">
         <v>9.9499999999999993</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I10" s="18">
         <v>1</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J10" s="6">
         <f t="shared" si="0"/>
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="4" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H11" s="6">
         <v>3.35</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I11" s="18">
         <v>1</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J11" s="6">
         <f t="shared" si="0"/>
         <v>3.35</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="4" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H12" s="6">
         <v>2.95</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I12" s="18">
         <v>1</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>2.95</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H13" s="6">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I13" s="18">
         <v>1</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="1:12">
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H14" s="6">
         <v>7.95</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I14" s="18">
         <v>1</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J14" s="6">
         <f t="shared" si="0"/>
         <v>7.95</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H15" s="6">
         <v>1.5</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I15" s="18">
         <v>3</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J15" s="6">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:12">
+      <c r="B16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H16" s="6">
         <v>0.35</v>
       </c>
-      <c r="I14" s="18">
-        <v>4</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" ref="J14:J23" si="1">I14*H14</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="4" t="s">
+      <c r="I16" s="18">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" ref="J16:J26" si="1">I16*H16</f>
+        <v>1.0499999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G17" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H17" s="6">
         <v>0.89</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I17" s="18">
         <v>1</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J17" s="6">
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="4" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H18" s="6">
         <v>0.95</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I18" s="18">
         <v>1</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J18" s="6">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="C19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="6">
         <v>0.11</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="18">
         <v>12</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
         <v>1.32</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="I19" s="18"/>
-    </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="I20" s="18"/>
+      <c r="F20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="I21" s="18"/>
+      <c r="F21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="I22" s="18"/>
+      <c r="F22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I22" s="18">
+        <v>2</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>63</v>
+        <v>103</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1206</v>
+        <v>34</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>62</v>
+      <c r="G23" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="H23" s="6">
-        <v>1.62</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I23" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="1"/>
-        <v>1.62</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E24" s="5">
         <v>1206</v>
       </c>
+      <c r="F24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="I24" s="18">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="1"/>
+        <v>1.62</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E25" s="5">
         <v>1206</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="G27" s="4" t="s">
+      <c r="F25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1206</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="G28" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="6">
-        <f>SUM(H2:H23)</f>
-        <v>51.780000000000008</v>
-      </c>
-      <c r="J27" s="6">
-        <f>SUM(J2:J23)</f>
-        <v>59.240000000000009</v>
+      <c r="H28" s="22">
+        <f>SUM(H2:H26)</f>
+        <v>52.037999999999997</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22">
+        <f>SUM(J2:J26)</f>
+        <v>59.231999999999999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/layouts/lightplay2/lightplay2-BillOfMaterials.xlsx
+++ b/layouts/lightplay2/lightplay2-BillOfMaterials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
   <si>
     <t>10 uH inductor</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>710-744025100</t>
+  </si>
+  <si>
+    <t>594-5073NW5R600J</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -632,6 +635,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -720,7 +725,7 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -832,6 +837,7 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
@@ -901,6 +907,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1230,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1694,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" ref="J16:J26" si="1">I16*H16</f>
+        <f t="shared" ref="J16:J27" si="1">I16*H16</f>
         <v>1.0499999999999998</v>
       </c>
     </row>
@@ -1792,247 +1799,257 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="C20" s="9"/>
       <c r="F20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I21" s="18">
         <v>1</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J21" s="6">
         <f t="shared" si="1"/>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H22" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I22" s="18">
         <v>1</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J22" s="6">
         <f t="shared" si="1"/>
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H23" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="18">
         <v>2</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J23" s="6">
         <f t="shared" si="1"/>
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I24" s="18">
         <v>3</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J24" s="6">
         <f t="shared" si="1"/>
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <v>1206</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G25" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="6">
         <v>1.62</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I25" s="18">
         <v>1</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J25" s="6">
         <f t="shared" si="1"/>
         <v>1.62</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="5">
         <v>1206</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I26" s="18">
         <v>1</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J26" s="6">
         <f t="shared" si="1"/>
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <v>1206</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="6">
         <v>0.10199999999999999</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I27" s="18">
         <v>1</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J27" s="6">
         <f t="shared" si="1"/>
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="G28" s="21" t="s">
+    <row r="29" spans="1:10">
+      <c r="G29" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="22">
-        <f>SUM(H2:H26)</f>
+      <c r="H29" s="22">
+        <f>SUM(H2:H27)</f>
         <v>52.037999999999997</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22">
-        <f>SUM(J2:J26)</f>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22">
+        <f>SUM(J2:J27)</f>
         <v>59.231999999999999</v>
       </c>
     </row>
